--- a/OldMutual/Output/ExceptionReportMatchStatus.xlsx
+++ b/OldMutual/Output/ExceptionReportMatchStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\TechniX_Projects\UAP_OldMutual_Reconciliation_Process\old-mutual\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFD2ABA-E09D-4F3F-ACB1-30EDC1299115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E684563-1B40-4376-8513-A699CF613A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{E4CD0687-368E-4A61-A3E6-5D417E912FC5}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{79E322C2-8CAC-4BA5-B1AA-C585629A7560}"/>
   </bookViews>
   <sheets>
     <sheet name="ExceptionInvoiceMatched" sheetId="3" r:id="rId1"/>
@@ -4640,7 +4640,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Vardhan Addagada" refreshedDate="45260.35420115741" createdVersion="1" refreshedVersion="8" recordCount="458" xr:uid="{4433107D-AC70-47A8-AF46-F292F2883516}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Vardhan Addagada" refreshedDate="45260.618221064811" createdVersion="1" refreshedVersion="8" recordCount="458" xr:uid="{80292333-9CFB-4A42-91CA-445D0AB87D4C}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:Q459" sheet="Untraced Bills"/>
   </cacheSource>
@@ -13413,7 +13413,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5A3D0DAE-C42B-43BD-8766-4B5B10E68AAB}" name="pivotuntraced" cacheId="19" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{95DC6043-0A07-4D41-A422-16C2E8CDDDDA}" name="pivotuntraced" cacheId="19" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
   <location ref="AV1:AV2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="17">
     <pivotField showAll="0" includeNewItemsInFilter="1">
@@ -13853,7 +13853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC362BB9-EB4F-4A7F-9F98-6B381211AE4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F320A68A-0C8C-4717-A4DB-F2B6C437F3DE}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14019,7 +14019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5BE018-237F-4E63-A6FA-4D592255F2B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACF70F9-F811-49B6-9576-F2BB4F3D5EB7}">
   <dimension ref="A1:AV459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -36994,7 +36994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C92EAC-8555-44CA-A317-1A9CA2D570BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5586E672-6CE0-426B-9082-69A96246849D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/OldMutual/Output/ExceptionReportMatchStatus.xlsx
+++ b/OldMutual/Output/ExceptionReportMatchStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\TechniX_Projects\UAP_OldMutual_Reconciliation_Process\old-mutual\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E51982-FE93-4BFF-B4D3-1E3BC8316689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF40A17A-C36C-4BB1-839C-3381C5C4D042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{28B1DA07-549B-4340-9E94-A254C425AFF8}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{FF598B9C-8179-4654-8F9C-09F77405B6A7}"/>
   </bookViews>
   <sheets>
     <sheet name="ExceptionInvoiceMatched" sheetId="3" r:id="rId1"/>
@@ -2309,7 +2309,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Vardhan Addagada" refreshedDate="45260.723750694444" createdVersion="1" refreshedVersion="8" recordCount="227" xr:uid="{D8E90AD4-F113-47B3-8BDA-C2EA274D1A9C}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Vardhan Addagada" refreshedDate="45264.491402199077" createdVersion="1" refreshedVersion="8" recordCount="227" xr:uid="{DA9E0B34-0F1B-4648-998E-2BB2EA356435}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:Q228" sheet="Untraced Bills"/>
   </cacheSource>
@@ -6693,7 +6693,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1062630F-84BC-466F-BE76-137748EEBA15}" name="pivotuntraced" cacheId="27" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6CCB2C7-5F2F-4A71-93C4-04F41149952A}" name="pivotuntraced" cacheId="27" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
   <location ref="AV1:AV2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="17">
     <pivotField showAll="0" includeNewItemsInFilter="1">
@@ -7133,7 +7133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E1AB35-1FC1-43D1-8F33-3B44FEBF3B00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09748719-5CF6-448F-8FB6-9690D2E124DF}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7199,7 +7199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829BD950-C953-4CA8-B75D-83FA22DE74CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B436635B-BD6A-43EE-AEA3-5C92903FC125}">
   <dimension ref="A1:AV228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -18624,7 +18624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B232FB-6405-4200-8F02-E1149CC764CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B848B4D1-4584-491F-9F97-70A323A17ABA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/OldMutual/Output/ExceptionReportMatchStatus.xlsx
+++ b/OldMutual/Output/ExceptionReportMatchStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\TechniX_Projects\UAP_OldMutual_Reconciliation_Process\old-mutual\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2279856-7C38-48DE-AFEF-8D872A45CA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCBEE54-80B4-464B-BB11-83FF164B9006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{18C2372F-6198-4597-9FE1-617453B89F79}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00605CA8-2DC9-422A-B371-998CF94FFCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="ExceptionInvoiceMatched" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="53" r:id="rId4"/>
+    <pivotCache cacheId="27" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2321,7 +2321,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Vardhan Addagada" refreshedDate="45265.856227314813" createdVersion="1" refreshedVersion="8" recordCount="227" xr:uid="{D7F541C1-874C-45BE-AC9F-FF56064680B8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Vardhan Addagada" refreshedDate="45266.427326851852" createdVersion="1" refreshedVersion="8" recordCount="227" xr:uid="{6D6038AB-9391-41F3-8638-FBA54EE137BE}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T228" sheet="Untraced Bills"/>
   </cacheSource>
@@ -7395,7 +7395,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D10E338B-782A-40D8-8789-174FFB48B23E}" name="pivotuntraced" cacheId="53" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5AFED39-7E63-44B7-A49F-556D222D738D}" name="pivotuntraced" cacheId="27" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
   <location ref="AV1:AV2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="20">
     <pivotField showAll="0" includeNewItemsInFilter="1">
@@ -7856,7 +7856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F9A900-4D62-41A3-B977-13ECAAD8300A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EBD5AB-5B40-4860-AE14-1C1F711E85B3}">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7931,7 +7931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E73F54-33B0-4E60-AE11-5110F5299096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55C6FF8-4321-4CC5-81D6-A724929FDC1B}">
   <dimension ref="A1:AV228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -20046,7 +20046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E748FF-F6E2-4906-A2C4-F1A63579DCB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BDFC5A-5E5A-4F37-995D-9EB61C7CD9A4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/OldMutual/Output/ExceptionReportMatchStatus.xlsx
+++ b/OldMutual/Output/ExceptionReportMatchStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishn\OneDrive\Desktop\TechniX_Projects\UAP_OldMutual_Reconciliation_Process\old-mutual\OldMutual\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCBEE54-80B4-464B-BB11-83FF164B9006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8719AE-B092-41F7-91DD-DBA419F8D8FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00605CA8-2DC9-422A-B371-998CF94FFCBF}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{3B8BAC9F-FCCB-4F98-A5A5-B868A10F3658}"/>
   </bookViews>
   <sheets>
     <sheet name="ExceptionInvoiceMatched" sheetId="3" r:id="rId1"/>
@@ -2321,7 +2321,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Vardhan Addagada" refreshedDate="45266.427326851852" createdVersion="1" refreshedVersion="8" recordCount="227" xr:uid="{6D6038AB-9391-41F3-8638-FBA54EE137BE}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vishnu Vardhan Addagada" refreshedDate="45272.925849421299" createdVersion="1" refreshedVersion="8" recordCount="227" xr:uid="{B1998DEF-BA37-4F87-B4CE-D68FB1AD1E24}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:T228" sheet="Untraced Bills"/>
   </cacheSource>
@@ -7395,7 +7395,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5AFED39-7E63-44B7-A49F-556D222D738D}" name="pivotuntraced" cacheId="27" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{14361963-A1A7-4C9F-AA4C-94AFAF55556D}" name="pivotuntraced" cacheId="27" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1">
   <location ref="AV1:AV2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="20">
     <pivotField showAll="0" includeNewItemsInFilter="1">
@@ -7856,7 +7856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EBD5AB-5B40-4860-AE14-1C1F711E85B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDCF1FE-F44B-478E-B637-A8EC995ACF1E}">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7931,7 +7931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55C6FF8-4321-4CC5-81D6-A724929FDC1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5332996-E821-4C1E-B02D-5F2BEF708BBA}">
   <dimension ref="A1:AV228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -20046,7 +20046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BDFC5A-5E5A-4F37-995D-9EB61C7CD9A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13539380-83AD-4FFE-8DCA-E4F743EFF633}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
